--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/02_User_intesa.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/02_User_intesa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="543" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="543"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -846,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
